--- a/AGR/RGE/ELECTRIC/T001_SC8-All/raw_source_data/IEDR_RatePlan_RGE_SC08_2024-10-28.xlsx
+++ b/AGR/RGE/ELECTRIC/T001_SC8-All/raw_source_data/IEDR_RatePlan_RGE_SC08_2024-10-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boek/git/IEDR/rate-plan-test-cases/AGR/RGE/ELECTRIC/T001_SC8-All/raw_source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5038AA-F5D8-1648-9105-778D3A9511CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F10761-A218-7C4B-B30D-7E45026383DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rate_plan" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">seasons!$A$1:$C$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">time_of_use_periods!$A$1:$I$55</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -851,7 +864,7 @@
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1559,9 +1572,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1831,6 +1850,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2179,13 +2199,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,10 +2242,10 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
@@ -2234,16 +2254,16 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
         <v>92</v>
       </c>
       <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
         <v>93</v>
-      </c>
-      <c r="I2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2251,16 +2271,16 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>91</v>
@@ -2269,10 +2289,10 @@
         <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2309,28 +2329,28 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
         <v>92</v>
       </c>
       <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
         <v>93</v>
-      </c>
-      <c r="I5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2338,28 +2358,28 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
         <v>92</v>
       </c>
       <c r="H6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" t="s">
         <v>94</v>
-      </c>
-      <c r="I6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2367,16 +2387,16 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>91</v>
@@ -2385,10 +2405,10 @@
         <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2425,28 +2445,28 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>92</v>
       </c>
       <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
         <v>94</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3790,6 +3810,9 @@
         <filter val="EDS-AGR-RGE-SC08P-LAR-001"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I10">
+      <sortCondition ref="D1:D55"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3801,7 +3824,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3825,10 +3848,10 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,10 +3859,10 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3847,10 +3870,10 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3858,10 +3881,10 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3880,10 +3903,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3891,10 +3914,10 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3902,10 +3925,10 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3913,10 +3936,10 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3924,7 +3947,7 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
@@ -3946,7 +3969,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>100</v>
@@ -4619,8 +4642,12 @@
         <filter val="EDS-AGR-RGE-SC08P-LAR-001"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
+      <sortCondition ref="C1:C73"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
